--- a/Business_in_Flushing_Categories.xlsx
+++ b/Business_in_Flushing_Categories.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,33 +1046,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cleaning Path Corp.</t>
+          <t>RDS Industries Incorporated</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cinia Ortega</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>347-698-0490</t>
-        </is>
+          <t>Richard De Castro</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7183219000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cleanpathcorp@gmail.com</t>
+          <t>rdsindustries@att.net</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>02/28/2025;02/28/2025</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44469</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1081,14 +1077,10 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>170-06 Crocheron Avenue</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Suite 1B</t>
-        </is>
-      </c>
+          <t>43-01 162nd Street</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1102,10 +1094,14 @@
       <c r="L10" t="n">
         <v>11358</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://www.RDSIndustries.com</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Cleaning Path does commercial cleanings i.e.  floor service, window cleaning and power wash for offices, schools and warehouses.</t>
+          <t>Licensed electrical and mechanical contractors and engineers since 1972. All types of systems from low voltage to 15KV.  NYS licensed fire and security systems.  We have performed nearly every type of commercial, industrial, aviation, transportation and government installations.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1117,41 +1113,45 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RDS Industries Incorporated</t>
+          <t>The Alarm Lady Inc.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Richard De Castro</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>7183219000</v>
+          <t>Debra Moeller</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>718-343-3326</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rdsindustries@att.net</t>
+          <t>thealarmlady@aol.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44469</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>43-01 162nd Street</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>65-77 Parsons Blvd</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Apt 2E</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1163,16 +1163,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>11358</v>
+        <v>11365</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://www.RDSIndustries.com</t>
+          <t>http://www.thealarmlady.com</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Licensed electrical and mechanical contractors and engineers since 1972. All types of systems from low voltage to 15KV.  NYS licensed fire and security systems.  We have performed nearly every type of commercial, industrial, aviation, transportation and government installations.</t>
+          <t>Security System Integrator, for Residential and Commercial properties Specializing in the following: *Design, Install and Maintain Burglar Alarms, Fire Alarms, with Central Station Monitoring Service.  *Video Monitoring Systems with remote Capabilityâs.  *Managed Access Control. Intercoms, Telephone Systems. *Structured Wiring for Audio/Video.  Home Theater.  .Sales, Service, &amp; Repair on all Systems</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1184,38 +1184,38 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gambino Information Services, Inc.</t>
+          <t>Sure Shot Termite &amp; Pest Control, Inc.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michele Gambino</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>718-445-2270</t>
-        </is>
+          <t>Khaud Mehmud</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7183597114</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gambinoinfo@gmail.com</t>
+          <t>sales@sureshot.us</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>44377</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2955A 164th Street</t>
+          <t>158-21 Horace Harding Exp.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1230,16 +1230,16 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>11358</v>
+        <v>11365</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://www.4privateinvestigators.com</t>
+          <t>http://www.sureshot.us</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>We are a licensed, bonded and insured private investigation firm that focus on many different areas of investigations. We specialize in landlord/tenant, employment, location and background investigations as well as surveillance. Our surveillance team focus on matters related to matrimonial issues to assist attorneys in divorce proceedings or simply to provide peace of mind.  We also provide surveillance for insurance companies with regard to workmen's compensation and liability claims. We have been in business for over 20 years and take great care in providing our clients with the most rewarding and necessary results.</t>
+          <t>Pest control services, bird control, pigeon control, wildlife removal, termite control, raccoon removal, bees/wasp/hornet nest removal.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1251,22 +1251,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Alarm Lady Inc.</t>
+          <t>Magna Canna Corp.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Debra Moeller</t>
+          <t>Lauren Cornea</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>718-343-3326</t>
+          <t>516-858-2868</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>thealarmlady@aol.com</t>
+          <t>lcornea@magna-canna.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1282,14 +1282,10 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>65-77 Parsons Blvd</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Apt 2E</t>
-        </is>
-      </c>
+          <t>145-30 29 Road</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1301,16 +1297,12 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>11365</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>http://www.thealarmlady.com</t>
-        </is>
-      </c>
+        <v>11354</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Security System Integrator, for Residential and Commercial properties Specializing in the following: *Design, Install and Maintain Burglar Alarms, Fire Alarms, with Central Station Monitoring Service.  *Video Monitoring Systems with remote Capabilityâs.  *Managed Access Control. Intercoms, Telephone Systems. *Structured Wiring for Audio/Video.  Home Theater.  .Sales, Service, &amp; Repair on all Systems</t>
+          <t>Our business specializes in herbal vitamins and supplements.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1322,47 +1314,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grace Ambulette, Inc.</t>
+          <t>Arcadia Builders Corporation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amanda Paul</t>
+          <t>Josephine OGrady</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3478132196</v>
+        <v>7702722342</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>info@graceambulette.com</t>
+          <t>email@arcadiany.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>04/29/2023;04/29/2023</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>153-32 73rd Avenue</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Suite 1F</t>
-        </is>
-      </c>
+          <t>29-07 119th Street</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1374,16 +1358,16 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11367</v>
+        <v>11354</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://www.graceambulette.com</t>
+          <t>http://www.arcadiany.com</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Ambulette services.</t>
+          <t>Janitorial/maintenance services.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1395,20 +1379,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sure Shot Termite &amp; Pest Control, Inc.</t>
+          <t>HWL Engineering P.C.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Khaud Mehmud</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>7183597114</v>
+          <t>WANLONG HE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>718-886-2469</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sales@sureshot.us</t>
+          <t>he@HWLeng.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1417,7 +1403,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44377</v>
+        <v>45688</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1426,10 +1412,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>158-21 Horace Harding Exp.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>136-77, Roosevelt Ave</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>#Suite 302</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1441,59 +1431,59 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>11365</v>
+        <v>11354</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://www.sureshot.us</t>
+          <t>http://HWL ENGINEERING P.C.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Pest control services, bird control, pigeon control, wildlife removal, termite control, raccoon removal, bees/wasp/hornet nest removal.</t>
+          <t>906 - ARCHITECTURAL SERVICES, PROFESSIONAL  907 - ARCHITECTURAL AND ENGINEERING SERVICES, NON-PROFESSIONAL  909 - BUILDING CONSTRUCTION SERVICES, NEW  912 - CONSTRUCTION SERVICES, GENERAL  913 - CONSTRUCTION SERVICES, HEAVY  914 - CONSTRUCTION SERVICES, TRADE (NEW CONSTRUCTION)  918 - CONSULTING SERVICES  925 - ENGINEERING SERVICES, PROFESSIONAL  940 - EQUIPMENT MAINTENANCE, REPAIR, CONSTRUCTION, AND RELATED SERVICES - RAILROAD  958 - MANAGEMENT SERVICES  959 - MARINE CONSTRUCTION SERVICES; MARINE EQUIPMENT MAINTENANCE AND REPAIR; RELATED MARINE SERVICES  962 - MISCELLANEOUS SERVICES  968 - PUBLIC WORKS AND RELATED SERVICES</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Magna Canna Corp.</t>
+          <t>Silva's Painting</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lauren Cornea</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>516-858-2868</t>
-        </is>
+          <t>Facundo Silva</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7187097000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>lcornea@magna-canna.com</t>
+          <t>info@silvapainting.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>44925</v>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>145-30 29 Road</t>
+          <t>40-26 194 st</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1508,62 +1498,58 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Our business specializes in herbal vitamins and supplements.</t>
+          <t>Exterior and Interior Painting on commercial and residential units. Wallpaper Hanging , Sheetrock and taping</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ideas Construction Corp</t>
+          <t>John A. Vassilaros &amp; Sons, Inc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>William Lopez</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>6462797848</v>
+          <t>Alexandra Vassilaros</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>917-733-8260</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>wlb3731@gmail.com</t>
+          <t>alexandra.vassilaros@vassilaroscoffee.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>43981</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>162-09 Sanford Avenue</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Apt 2B</t>
-        </is>
-      </c>
+          <t>2905 120th Street</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1575,37 +1561,43 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>11358</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>11354</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://www.vassilaroscoffee.com</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ideas Construction, Corp is a company that specializes in all kinds of repairs, renovations for interior or exteriors of residential and commercial.  In addition, the company does painting, sheetrock, taping, change tiles.  The company will indeed sell and distribute energy saving products.</t>
+          <t>John A. Vassilaros &amp; Sons does the roasting and distribution of coffee to restaurants, diners, pushcarts, groceries, online vendors and consumers.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wah Lai Ceramic Tile &amp; Lumber Corp.</t>
+          <t>Morfa Express Inc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peter Wu</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>7183218181</v>
+          <t>Tatiana Marmolejo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>347-672-3647</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Richard.wahlai@gmail.com</t>
+          <t>morfaexpress1@gmail.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1614,16 +1606,16 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44956</v>
+        <v>44985</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>134-14 Northern Boulevard</t>
+          <t>61-43 186 street</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1638,64 +1630,56 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>11354</v>
+        <v>11365</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>We are a buildings material supplier delivering to the tri-state area. We sell all sorts of building materials. If we don't stock it, we can order it for you.</t>
+          <t>Dump truck/hauling services. construction materials such as millings, asphalt, gravel, dirt, concrete and rocks</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JW Contractor Inc.</t>
+          <t>The Art Studio for Kids Corp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Song Wook Jee</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>917-563-1040</t>
-        </is>
+          <t>Valerie Plasmati</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>9175998684</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jwcontractorinc@gmail.com</t>
+          <t>valplas@aol.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>45382</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>42-44 162nd Street</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Suite C</t>
-        </is>
-      </c>
+          <t>29-36 167 St</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -1709,51 +1693,57 @@
       <c r="L19" t="n">
         <v>11358</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://www.theartstufioforkids.com</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>JW Contractor INC is a family owned general contracting business. We specialize in both residential and commercial building and remodeling tailored to our customer's specifications. We have a solid track record of finishing projects well before its projected due date and oftentimes under budget.  We have a long list of satisfied clients due to our efficient and successful completion of property improvement projects for numerous residents and business owners.</t>
+          <t>Multi-media art program focusing on painting and drawing in a variety of mediums, clay and collage for elementary-age children in after-school programs. Also available for in-school artist residencies and special events including family, community and intergenerational art projects for NYC organizations, companies, public schools and districts.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Arcadia Builders Corporation</t>
+          <t>NY Construction Work, Inc.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Josephine OGrady</t>
+          <t>Hyuk Hwang</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7702722342</v>
+        <v>7189617700</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>email@arcadiany.com</t>
+          <t>nycw9617700@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45045</v>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29-07 119th Street</t>
+          <t>43-24 166th Street</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1768,66 +1758,66 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://www.arcadiany.com</t>
+          <t>http://www.youtube.com:nycwpresentation</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Janitorial/maintenance services.</t>
+          <t>general contruction</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HWL Engineering P.C.</t>
+          <t>B.J.B. Enterprises</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WANLONG HE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>718-886-2469</t>
-        </is>
+          <t>Betty Banks</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7182633874</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>he@HWLeng.com</t>
+          <t>Bdummette@aol.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>45688</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10/30/2022;10/30/2022</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>136-77, Roosevelt Ave</t>
+          <t>136-47 Jewel Avenue</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>#Suite 302</t>
+          <t>1st Floor</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1841,16 +1831,12 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11354</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>http://HWL ENGINEERING P.C.</t>
-        </is>
-      </c>
+        <v>11367</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>906 - ARCHITECTURAL SERVICES, PROFESSIONAL  907 - ARCHITECTURAL AND ENGINEERING SERVICES, NON-PROFESSIONAL  909 - BUILDING CONSTRUCTION SERVICES, NEW  912 - CONSTRUCTION SERVICES, GENERAL  913 - CONSTRUCTION SERVICES, HEAVY  914 - CONSTRUCTION SERVICES, TRADE (NEW CONSTRUCTION)  918 - CONSULTING SERVICES  925 - ENGINEERING SERVICES, PROFESSIONAL  940 - EQUIPMENT MAINTENANCE, REPAIR, CONSTRUCTION, AND RELATED SERVICES - RAILROAD  958 - MANAGEMENT SERVICES  959 - MARINE CONSTRUCTION SERVICES; MARINE EQUIPMENT MAINTENANCE AND REPAIR; RELATED MARINE SERVICES  962 - MISCELLANEOUS SERVICES  968 - PUBLIC WORKS AND RELATED SERVICES</t>
+          <t>I provide sign language interpreting offered in schools, hospitals, etc... Provide services for the deaf (hearing impaired) &amp; the blind. Mobility services.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1862,38 +1848,40 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Silva's Painting</t>
+          <t>Universal MultiLink Inc.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Facundo Silva</t>
+          <t>Li Ping Chao</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7187097000</v>
+        <v>7187760800</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>info@silvapainting.com</t>
+          <t>joyce@universalmultilink.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44925</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>03/30/2023;03/30/2023</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>40-26 194 st</t>
+          <t>189-11 Union Turnpike</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1908,12 +1896,16 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11358</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>11366</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://www.universalmultilink.com</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Exterior and Interior Painting on commercial and residential units. Wallpaper Hanging , Sheetrock and taping</t>
+          <t>Laserjet, Designjet printer services &amp; maintenance specialist, business laptop hardware support specialist, computer &amp; office machine repair and maintenance. Office equipment service &amp; repair, environmental toner/cartridges specialist.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1925,38 +1917,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>John A. Vassilaros &amp; Sons, Inc</t>
+          <t>Jet Mobil Industries LLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alexandra Vassilaros</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>917-733-8260</t>
-        </is>
+          <t>Earl Marshall</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3472568512</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>alexandra.vassilaros@vassilaroscoffee.com</t>
+          <t>info@newyorksmobilecarwash.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>44833</v>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2905 120th Street</t>
+          <t>43-28 163 Street</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1971,57 +1963,61 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://www.vassilaroscoffee.com</t>
+          <t>http://newyorksmobilecarwash.com</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>John A. Vassilaros &amp; Sons does the roasting and distribution of coffee to restaurants, diners, pushcarts, groceries, online vendors and consumers.</t>
+          <t>Automotive mobile wash, powerwash, commercial, outdoor, industrial cleaning, surface remediation.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Heath Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The Art Studio for Kids Corp</t>
+          <t>Honest &amp; Quality Corp.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Valerie Plasmati</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>9175998684</v>
+          <t>Jane Han</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>718-575-0576</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>valplas@aol.com</t>
+          <t>jhan122062@aol.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45716</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>29-36 167 St</t>
+          <t>150-80 70th Road Floor 3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2036,62 +2032,66 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>11358</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>http://www.theartstufioforkids.com</t>
-        </is>
-      </c>
+        <v>11367</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Multi-media art program focusing on painting and drawing in a variety of mediums, clay and collage for elementary-age children in after-school programs. Also available for in-school artist residencies and special events including family, community and intergenerational art projects for NYC organizations, companies, public schools and districts.</t>
+          <t>General contractor with trades as follow: Residential &amp; commercial bldg, drywall, sheet rock, plaster, painting, window installation, door installation, concrete, brick laying, excavation, kitchen &amp; bath installation &amp; remodeling.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NY Construction Work, Inc.</t>
+          <t>Cleaning Path Corp.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hyuk Hwang</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>7189617700</v>
+          <t>Cinia Ortega</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>347-698-0490</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>nycw9617700@gmail.com</t>
+          <t>cleanpathcorp@gmail.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45045</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>02/28/2025;02/28/2025</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>43-24 166th Street</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>170-06 Crocheron Avenue</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Suite 1B</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -2105,64 +2105,58 @@
       <c r="L25" t="n">
         <v>11358</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>http://www.youtube.com:nycwpresentation</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>general contruction</t>
+          <t>Cleaning Path does commercial cleanings i.e.  floor service, window cleaning and power wash for offices, schools and warehouses.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B.J.B. Enterprises</t>
+          <t>Ideas Construction Corp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Betty Banks</t>
+          <t>William Lopez</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7182633874</v>
+        <v>6462797848</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bdummette@aol.com</t>
+          <t>wlb3731@gmail.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10/30/2022;10/30/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>43981</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>136-47 Jewel Avenue</t>
+          <t>162-09 Sanford Avenue</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1st Floor</t>
+          <t>Apt 2B</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2176,48 +2170,46 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>11367</v>
+        <v>11358</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>I provide sign language interpreting offered in schools, hospitals, etc... Provide services for the deaf (hearing impaired) &amp; the blind. Mobility services.</t>
+          <t>Ideas Construction, Corp is a company that specializes in all kinds of repairs, renovations for interior or exteriors of residential and commercial.  In addition, the company does painting, sheetrock, taping, change tiles.  The company will indeed sell and distribute energy saving products.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Universal MultiLink Inc.</t>
+          <t>Wah Lai Ceramic Tile &amp; Lumber Corp.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Li Ping Chao</t>
+          <t>Peter Wu</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7187760800</v>
+        <v>7183218181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joyce@universalmultilink.com</t>
+          <t>Richard.wahlai@gmail.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>03/30/2023;03/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2226,7 +2218,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>189-11 Union Turnpike</t>
+          <t>134-14 Northern Boulevard</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2241,59 +2233,57 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>11366</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>http://www.universalmultilink.com</t>
-        </is>
-      </c>
+        <v>11354</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Laserjet, Designjet printer services &amp; maintenance specialist, business laptop hardware support specialist, computer &amp; office machine repair and maintenance. Office equipment service &amp; repair, environmental toner/cartridges specialist.</t>
+          <t>We are a buildings material supplier delivering to the tri-state area. We sell all sorts of building materials. If we don't stock it, we can order it for you.</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jet Mobil Industries LLC</t>
+          <t>Poar Corp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Earl Marshall</t>
+          <t>Rosa Oviedo</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3472568512</v>
+        <v>9178481869</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>info@newyorksmobilecarwash.com</t>
+          <t>contact@poarwear.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>44833</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12/31/2023;12/31/2023</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>43-28 163 Street</t>
+          <t>150-30 71 Avenue #4G</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2308,64 +2298,68 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>11358</v>
+        <v>11367</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://newyorksmobilecarwash.com</t>
+          <t>http://www.poarwear.com</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Automotive mobile wash, powerwash, commercial, outdoor, industrial cleaning, surface remediation.</t>
+          <t>Online store selling computer bags, tote bags, backpacks, especially designs for travelers, commuters and business women on the go. Poar was created with the everyday commuter in mind. Also sells a fashion hand gloves with a mobile case attached to the palm of your hand for those commuters who call asleep on the train. Winter accessories, scarves, hats, cellphone cases with Poar brand on it. Cellphone cases, the back has compartments for metro cards, and cellphone identification on the front.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Heath Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Finance &amp; Insurance.  |Safety/Security &amp; Legal. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honest &amp; Quality Corp.</t>
+          <t>Mirror Mirror Skin Co., LLC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jane Han</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>718-575-0576</t>
-        </is>
+          <t>Natasha Gayle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9178812886</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jhan122062@aol.com</t>
+          <t>natashag@mirrormirrorskinlab.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45716</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>01/31/2024;01/31/2024</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>150-80 70th Road Floor 3</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>132-01 Roosevelt Avenue</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>#818034</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -2377,39 +2371,41 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>11367</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>11354</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://mirrormirrorskinlab.com/</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>General contractor with trades as follow: Residential &amp; commercial bldg, drywall, sheet rock, plaster, painting, window installation, door installation, concrete, brick laying, excavation, kitchen &amp; bath installation &amp; remodeling.</t>
+          <t>Online and in person skin care treatment, specializing in advanced non-surgical corrective skincare treatments for health issues, acne, hyperpigmentation, anti-aging and ingrown hairs. Virtual appointments available. Established partnerships with dermatologists and plastic surgeons nationwide to provide total skincare solutions. In person service available in English and Spanish, virtual service available in 4 languages. Skin care product line for multi ethnic women and men. Coaching in business foundations in the spa industry.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Morfa Express Inc</t>
+          <t>Nextcom Construction Inc.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tatiana Marmolejo</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>347-672-3647</t>
-        </is>
+          <t>Sang Jun Lee</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7187627007</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>morfaexpress1@gmail.com</t>
+          <t>nextcomconstruction@gmail.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2418,19 +2414,23 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44985</v>
+        <v>45747</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>61-43 186 street</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>12909 26th Avenue</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Suite 102</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -2442,37 +2442,41 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11365</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>11354</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://www.nextcomconstruction.com</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Dump truck/hauling services. construction materials such as millings, asphalt, gravel, dirt, concrete and rocks</t>
+          <t>Provide full general construction service.</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mirror Mirror Skin Co., LLC</t>
+          <t>Grace Ambulette, Inc.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natasha Gayle</t>
+          <t>Amanda Paul</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9178812886</v>
+        <v>3478132196</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>natashag@mirrormirrorskinlab.com</t>
+          <t>info@graceambulette.com</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2482,7 +2486,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>01/31/2024;01/31/2024</t>
+          <t>04/29/2023;04/29/2023</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2492,12 +2496,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>132-01 Roosevelt Avenue</t>
+          <t>153-32 73rd Avenue</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>#818034</t>
+          <t>Suite 1F</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2511,41 +2515,41 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>11354</v>
+        <v>11367</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://mirrormirrorskinlab.com/</t>
+          <t>http://www.graceambulette.com</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Online and in person skin care treatment, specializing in advanced non-surgical corrective skincare treatments for health issues, acne, hyperpigmentation, anti-aging and ingrown hairs. Virtual appointments available. Established partnerships with dermatologists and plastic surgeons nationwide to provide total skincare solutions. In person service available in English and Spanish, virtual service available in 4 languages. Skin care product line for multi ethnic women and men. Coaching in business foundations in the spa industry.</t>
+          <t>Ambulette services.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nextcom Construction Inc.</t>
+          <t>Z &amp; T Engineering, P.C.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sang Jun Lee</t>
+          <t>Fei Zeng</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7187627007</v>
+        <v>7183583688</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>nextcomconstruction@gmail.com</t>
+          <t>fzeng3@gmail.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2554,7 +2558,7 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45747</v>
+        <v>44529</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2563,12 +2567,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12909 26th Avenue</t>
+          <t>136-20 38th Avenue</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Suite 102</t>
+          <t>Suite 10 E</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2586,57 +2590,55 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://www.nextcomconstruction.com</t>
+          <t>http://www.ztengineeringpc.com</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Provide full general construction service.</t>
+          <t>Structural design, building inspection, bridge and civil engineering architect.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Poar Corp</t>
+          <t>AMZ Technologies INC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rosa Oviedo</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>9178481869</v>
+          <t>ANDREW MINA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>201-342-2696</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>contact@poarwear.com</t>
+          <t>SALES@AMZTECHNOLOGIES.COM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>12/31/2023;12/31/2023</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>150-30 71 Avenue #4G</t>
+          <t>133-18 39TH AVE</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2651,66 +2653,58 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>11367</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>http://www.poarwear.com</t>
-        </is>
-      </c>
+        <v>11354</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Online store selling computer bags, tote bags, backpacks, especially designs for travelers, commuters and business women on the go. Poar was created with the everyday commuter in mind. Also sells a fashion hand gloves with a mobile case attached to the palm of your hand for those commuters who call asleep on the train. Winter accessories, scarves, hats, cellphone cases with Poar brand on it. Cellphone cases, the back has compartments for metro cards, and cellphone identification on the front.</t>
+          <t>COMPUTER SALES AND SERVICES</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance.  |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Z &amp; T Engineering, P.C.</t>
+          <t>Gambino Information Services, Inc.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fei Zeng</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>7183583688</v>
+          <t>Michele Gambino</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>718-445-2270</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>fzeng3@gmail.com</t>
+          <t>gambinoinfo@gmail.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44529</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>136-20 38th Avenue</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Suite 10 E</t>
-        </is>
-      </c>
+          <t>2955A 164th Street</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -2722,62 +2716,68 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://www.ztengineeringpc.com</t>
+          <t>http://www.4privateinvestigators.com</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Structural design, building inspection, bridge and civil engineering architect.</t>
+          <t>We are a licensed, bonded and insured private investigation firm that focus on many different areas of investigations. We specialize in landlord/tenant, employment, location and background investigations as well as surveillance. Our surveillance team focus on matters related to matrimonial issues to assist attorneys in divorce proceedings or simply to provide peace of mind.  We also provide surveillance for insurance companies with regard to workmen's compensation and liability claims. We have been in business for over 20 years and take great care in providing our clients with the most rewarding and necessary results.</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Heath Services. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AMZ Technologies INC</t>
+          <t>JW Contractor Inc.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ANDREW MINA</t>
+          <t>Song Wook Jee</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>201-342-2696</t>
+          <t>917-563-1040</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SALES@AMZTECHNOLOGIES.COM</t>
+          <t>jwcontractorinc@gmail.com</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45382</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>133-18 39TH AVE</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>42-44 162nd Street</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Suite C</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -2789,17 +2789,17 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>COMPUTER SALES AND SERVICES</t>
+          <t>JW Contractor INC is a family owned general contracting business. We specialize in both residential and commercial building and remodeling tailored to our customer's specifications. We have a solid track record of finishing projects well before its projected due date and oftentimes under budget.  We have a long list of satisfied clients due to our efficient and successful completion of property improvement projects for numerous residents and business owners.</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing. </t>
         </is>
       </c>
     </row>
@@ -3009,43 +3009,47 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P.C. Liu, CPA, P.C.</t>
+          <t>Jones Family Construction Corp.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pearl Liu</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>7189616686</v>
+          <t>Robert Jones</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>917-842-9694</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>pearlliu8@gmail.com</t>
+          <t>jonesfamilyconstruction1@gmail.com</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>06/30/2020;06/30/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45626</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>136-40 39th Avenue - Suite 202</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>65-61 Parsons Blvd</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Apt 5G</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3057,16 +3061,16 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>11354</v>
+        <v>11365</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://www.pcliucpa.com</t>
+          <t>https://jonesfamilyconstructionny.com</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>P.C. Liu, CPA, P.C. is an certified public accounting firm that provides full accounting and auditing services, we also provide bookkeeping, payroll process and sales report services.</t>
+          <t>Jones Family Construction is a company that specializes in home remodeling, renovation and repairs.</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3078,45 +3082,47 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jones Family Construction Corp.</t>
+          <t>Blue Rock Insurance Services Inc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>Constance Sung</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>917-842-9694</t>
+          <t>718-886-6601</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jonesfamilyconstruction1@gmail.com</t>
+          <t>csung@hibluerock.com</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>45626</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>05/31/2024;05/31/2024</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>65-61 Parsons Blvd</t>
+          <t>135-05 38th Ave</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Apt 5G</t>
+          <t>Unit 2A</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3130,16 +3136,16 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>11365</v>
+        <v>11354</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://jonesfamilyconstructionny.com</t>
+          <t>https://www.hibluerock.com</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Jones Family Construction is a company that specializes in home remodeling, renovation and repairs.</t>
+          <t>Explain coverage and options, finding the best deal for insurance coverage, assist on claims processes, risk management, renewal and endorsement of policy. Insurance product includes: Auto, homeowners, condo/coop unit, renters, personal, and commercial umbrella, worldwide travel, commercial vehicles, ocean marine, commercial properties, general liability, small business owner policies, and workers compensation.</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3151,43 +3157,35 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Clean Air Car Service &amp; Parking Corp.</t>
+          <t>Universal Heating &amp; Air Conditioning, Inc.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Howard Cohen</t>
+          <t>Noelle Gracin</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9179356572</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>kwang@operr.com</t>
-        </is>
-      </c>
+        <v>5165041120</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>45229</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>130-30 31st Avenue</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>801</v>
-      </c>
+          <t>40-04 192nd Street</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3199,12 +3197,16 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>11354</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>11358</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://www.universalhvac.ny.com</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Non-emergency medical transportation; livery;parking garage; mobile applications; technology solutions; related services; computer services; software</t>
+          <t>Universal is an industrial/commercial mechanical contractor company services such as the installation, sales and maintenance of all types of heating, air conditioning, ventilation and refrigeration. Universal also maintains our own sheet metal fabrication facilities.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3216,33 +3218,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Blue Rock Insurance Services Inc</t>
+          <t>Absolute Advanced Electric Inc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Constance Sung</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>718-886-6601</t>
-        </is>
+          <t>Choon Hoong Kong</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7183213060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>csung@hibluerock.com</t>
+          <t>mbe@AbsoluteAdvanced.com</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>05/31/2024;05/31/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>44925</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3251,14 +3249,10 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>135-05 38th Ave</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Unit 2A</t>
-        </is>
-      </c>
+          <t>26-14 123rd Street</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3274,12 +3268,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://www.hibluerock.com</t>
+          <t>http://www.AbsoluteAdvanced.com</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Explain coverage and options, finding the best deal for insurance coverage, assist on claims processes, risk management, renewal and endorsement of policy. Insurance product includes: Auto, homeowners, condo/coop unit, renters, personal, and commercial umbrella, worldwide travel, commercial vehicles, ocean marine, commercial properties, general liability, small business owner policies, and workers compensation.</t>
+          <t>Electrical Contractor</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3291,20 +3285,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gamco Corporation</t>
+          <t>Kiska Solutions, Inc.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Howard Nguyen</t>
+          <t>Weihua Chen</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7183598833</v>
+        <v>7187671911</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>info@gamcocorp.com</t>
+          <t>richard.chen@kiskasolutions.com</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3313,7 +3307,7 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45322</v>
+        <v>44741</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3322,10 +3316,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>131-10 Maple Avenue</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>28-24 120th Street</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Suite 200</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3337,16 +3335,16 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>11355</v>
+        <v>11354</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://www.gamcocorp.com</t>
+          <t>http://www.kiskasolutions.com</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Aluminum window and door manufacture including commercial doors, windows, curtain walls, skylights, architectural metal, fabrication; including, stainless steel bending, shearing, cutting, rolling, punching, and welding.</t>
+          <t>Design, installation, and management of security camera system, intercom system, card access control system, phone system, and computer networks.</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3358,20 +3356,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Absolute Advanced Electric Inc</t>
+          <t>Peter Plumbing Associates, Inc.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Choon Hoong Kong</t>
+          <t>Danny Kim</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7183213060</v>
+        <v>7188881855</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>mbe@AbsoluteAdvanced.com</t>
+          <t>pplumbing@gmail.com</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3380,7 +3378,7 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44925</v>
+        <v>43768</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3389,10 +3387,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>26-14 123rd Street</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>129-09 26th Avenue</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Ste. 206</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3406,14 +3408,10 @@
       <c r="L44" t="n">
         <v>11354</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>http://www.AbsoluteAdvanced.com</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Electrical Contractor</t>
+          <t>We provide plumbing services to NY and NJ. Our services include commercial and residential installations, backflow prevention, fire sprinkler and boiler installation</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3425,20 +3423,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Architectural Craft Stone Source, Inc</t>
+          <t>Li Tan Construction Corp.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Steven Li</t>
+          <t>Steven Kuo</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7188208885</v>
+        <v>7186666833</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jerry@acs-us.net</t>
+          <t>info@litanconstruction.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3447,7 +3445,7 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45322</v>
+        <v>45137</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3456,12 +3454,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>150-28 Union Turnpike</t>
+          <t>135-15 40th Road</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Suite105</t>
+          <t>Suite 302</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3475,16 +3473,16 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>11367</v>
+        <v>11354</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://www.acs-us.net</t>
+          <t>http://www.litanconstruction.com</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Granite supplier.</t>
+          <t>Li Tan Construction Corp., specialize in the following sectors of construction: residential, hospitality, retail complexes and restructuring projects. We are driven by a team of highly skilled project managers, architects and interior designers all dedicated to supporting the company's core values, client commitment, strategic analysis and collaborative design process.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3496,20 +3494,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Peter Plumbing Associates, Inc.</t>
+          <t>Vista Skywall Systems, LTD.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Danny Kim</t>
+          <t>Thomas Chen</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7188881855</v>
+        <v>7189472064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pplumbing@gmail.com</t>
+          <t>stevenp@vistaskywall.com</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3518,7 +3516,7 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>43768</v>
+        <v>44376</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3527,14 +3525,10 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>129-09 26th Avenue</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Ste. 206</t>
-        </is>
-      </c>
+          <t>31-10 Whitestone Expressway</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3548,10 +3542,14 @@
       <c r="L46" t="n">
         <v>11354</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://www.vistaskywall.com</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>We provide plumbing services to NY and NJ. Our services include commercial and residential installations, backflow prevention, fire sprinkler and boiler installation</t>
+          <t>Specializing in custom installation of windows and doors, metal panels, storefronts, and curtain walls for exterior building facades.</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3563,20 +3561,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Li Tan Construction Corp.</t>
+          <t>D'Merlo Construction, Inc.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Steven Kuo</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>7186666833</v>
+          <t>Michael Merlo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>917-613-0028</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>info@litanconstruction.com</t>
+          <t>michael@dmerloconstruction.com</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3585,21 +3585,21 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45137</v>
+        <v>45473</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>135-15 40th Road</t>
+          <t>5909 Kissena Blvd</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Suite 302</t>
+          <t>3rd Floor</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3613,16 +3613,16 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>11354</v>
+        <v>11355</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://www.litanconstruction.com</t>
+          <t>https://www.dmerloconstruction.com</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Li Tan Construction Corp., specialize in the following sectors of construction: residential, hospitality, retail complexes and restructuring projects. We are driven by a team of highly skilled project managers, architects and interior designers all dedicated to supporting the company's core values, client commitment, strategic analysis and collaborative design process.</t>
+          <t>Construction company focusing on all interior and exterior renovation, both for commercial and residential, work includes demolition, reconstruction, Painting, ceiling and wall repair, sheetrock, flooring, kitchen and bathroom remodels, cabinet appliance  installation. All redecoration.</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3634,38 +3634,38 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vista Skywall Systems, LTD.</t>
+          <t>ABDF Auto Service Corp.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thomas Chen</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>7189472064</v>
+          <t>Audra Fordin</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>718-762-6212</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>stevenp@vistaskywall.com</t>
+          <t>greatbearautoshop@gmail.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>44376</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>31-10 Whitestone Expressway</t>
+          <t>164-16 Sanford Avenue</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3680,16 +3680,16 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://www.vistaskywall.com</t>
+          <t>http://www.greatbearautoshop.com</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Specializing in custom installation of windows and doors, metal panels, storefronts, and curtain walls for exterior building facades.</t>
+          <t>ABDF Auto Service Corp specializes in foreign, hybrid and domestic auto service as well as the mechanical, electrical, maintenance and repair of vehicles.</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3701,22 +3701,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D'Merlo Construction, Inc.</t>
+          <t>GVG Contracting Corp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Michael Merlo</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>917-613-0028</t>
-        </is>
+          <t>Gerardo Struni</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>7184615923</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>michael@dmerloconstruction.com</t>
+          <t>gerardo@gvgcorporation.com</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3725,7 +3723,7 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45473</v>
+        <v>44408</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3734,14 +3732,10 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5909 Kissena Blvd</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>3rd Floor</t>
-        </is>
-      </c>
+          <t>30-31 Parsons Blvd</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3753,16 +3747,16 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>11355</v>
+        <v>11354</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://www.dmerloconstruction.com</t>
+          <t>http://www.gvgcontracting.com</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Construction company focusing on all interior and exterior renovation, both for commercial and residential, work includes demolition, reconstruction, Painting, ceiling and wall repair, sheetrock, flooring, kitchen and bathroom remodels, cabinet appliance  installation. All redecoration.</t>
+          <t>GVG Contracting Corp does framing, roofing, siding, interior works, etc.</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3774,41 +3768,49 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ABDF Auto Service Corp.</t>
+          <t>Sinclair Prints &amp; Poseys Inc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Audra Fordin</t>
+          <t>Amy Sinclair</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>718-762-6212</t>
+          <t>516-507-9799</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>greatbearautoshop@gmail.com</t>
+          <t>ayme@sinclairsocial.com</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>05/31/2024;05/31/2024</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>164-16 Sanford Avenue</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>150-10 71st Avenue</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3820,16 +3822,16 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>11358</v>
+        <v>11367</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://www.greatbearautoshop.com</t>
+          <t>https://www.sinclairsocial.com</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>ABDF Auto Service Corp specializes in foreign, hybrid and domestic auto service as well as the mechanical, electrical, maintenance and repair of vehicles.</t>
+          <t>We are a social media agency that helps organizations create media campaigns to grow their social media audiences. We do that by finding your audience on social and developing content strategies that will help drive these audiences into actions to meet your organization's goals which could include driving traffic to a website. We are a full-service agency that offers creative services and managing accounts on Facebook, Instagram and Twitter. We also offer media planning and media buying services which include online paid media and paid search campaigns.</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3841,20 +3843,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GVG Contracting Corp</t>
+          <t>Pinnacle Engineering, P.C.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gerardo Struni</t>
+          <t>Chun-Hsuing Huang</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7184615923</v>
+        <v>7185398675</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gerardo@gvgcorporation.com</t>
+          <t>pinnacleengineer@yahoo.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3863,19 +3865,23 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44408</v>
+        <v>44468</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>30-31 Parsons Blvd</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>134-35 33rd Avenue</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3rd Floor</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -3889,14 +3895,10 @@
       <c r="L51" t="n">
         <v>11354</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>http://www.gvgcontracting.com</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>GVG Contracting Corp does framing, roofing, siding, interior works, etc.</t>
+          <t>Provide architectural design drawings and MEP (Mechanical/Electrical/Plumbing) drawings; File jobs with NYC-department of buildings and Department of Environmental Protection and NYC Fire Department; Provide engineering services in consulting and construction management.</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3908,47 +3910,43 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sinclair Prints &amp; Poseys Inc</t>
+          <t>Quick Drop Industries, LLC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amy Sinclair</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>516-507-9799</t>
-        </is>
+          <t>Marcos Cabarcas</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3477393033</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ayme@sinclairsocial.com</t>
+          <t>QuickDropInd@aol.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>05/31/2024;05/31/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45322</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>150-10 71st Avenue</t>
+          <t>134-32 57 Avenue</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>1st Floor</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3962,16 +3960,12 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>11367</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>https://www.sinclairsocial.com</t>
-        </is>
-      </c>
+        <v>11355</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>We are a social media agency that helps organizations create media campaigns to grow their social media audiences. We do that by finding your audience on social and developing content strategies that will help drive these audiences into actions to meet your organization's goals which could include driving traffic to a website. We are a full-service agency that offers creative services and managing accounts on Facebook, Instagram and Twitter. We also offer media planning and media buying services which include online paid media and paid search campaigns.</t>
+          <t>Trucking, tractor trailers for hire to haul construction materials or debris from and to job sites to recycling facilities or haul construction materials from and to job sites.</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3983,20 +3977,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pinnacle Engineering, P.C.</t>
+          <t>Ameritech Systems Corporation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chun-Hsuing Huang</t>
+          <t>Steven Lee</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7185398675</v>
+        <v>7183530477</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>pinnacleengineer@yahoo.com</t>
+          <t>ameritechsystems@gmail.com</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4005,7 +3999,7 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44468</v>
+        <v>44012</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4014,12 +4008,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>134-35 33rd Avenue</t>
+          <t>131-35 31st Ave.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3rd Floor</t>
+          <t>2nd Floor</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4035,10 +4029,14 @@
       <c r="L53" t="n">
         <v>11354</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://www.ameritechsystems.net</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Provide architectural design drawings and MEP (Mechanical/Electrical/Plumbing) drawings; File jobs with NYC-department of buildings and Department of Environmental Protection and NYC Fire Department; Provide engineering services in consulting and construction management.</t>
+          <t>Electronic systems integrator: access control, CCTV, fire alarms, biometrics, digital signage, intercoms, Microsoft business partners, phone systems - analog &amp; VOIP.</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4050,20 +4048,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quick Drop Industries, LLC</t>
+          <t>RLB General Construction Corp.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marcos Cabarcas</t>
+          <t>Mohammad Hossain</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3477393033</v>
+        <v>7185393864</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>QuickDropInd@aol.com</t>
+          <t>rlbgcc@gmail.com</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4072,23 +4070,19 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45322</v>
+        <v>45168</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>134-32 57 Avenue</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1st Floor</t>
-        </is>
-      </c>
+          <t>142-16 56th Road</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4102,35 +4096,39 @@
       <c r="L54" t="n">
         <v>11355</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://www.rlbgcc.com</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Trucking, tractor trailers for hire to haul construction materials or debris from and to job sites to recycling facilities or haul construction materials from and to job sites.</t>
+          <t>Roof repair, demolition, all kind of chain link fence, on call roof repair, paint, cement and masonry repair, any custom design, ironwork, on call building maintains work, on call any chin link fence 24/7. We will do any job under $100,000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing. </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ameritech Systems Corporation</t>
+          <t>Gamco Corporation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Steven Lee</t>
+          <t>Howard Nguyen</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7183530477</v>
+        <v>7183598833</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ameritechsystems@gmail.com</t>
+          <t>info@gamcocorp.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4139,7 +4137,7 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44012</v>
+        <v>45322</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4148,14 +4146,10 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>131-35 31st Ave.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2nd Floor</t>
-        </is>
-      </c>
+          <t>131-10 Maple Avenue</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4167,59 +4161,57 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>11354</v>
+        <v>11355</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://www.ameritechsystems.net</t>
+          <t>http://www.gamcocorp.com</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Electronic systems integrator: access control, CCTV, fire alarms, biometrics, digital signage, intercoms, Microsoft business partners, phone systems - analog &amp; VOIP.</t>
+          <t>Aluminum window and door manufacture including commercial doors, windows, curtain walls, skylights, architectural metal, fabrication; including, stainless steel bending, shearing, cutting, rolling, punching, and welding.</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RLB General Construction Corp.</t>
+          <t>B. J. Laura &amp; Son, Inc.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mohammad Hossain</t>
+          <t>Doris Krsnak</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7185393864</v>
+        <v>7189619841</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rlbgcc@gmail.com</t>
+          <t>dck@bjlaura.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>45168</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>142-16 56th Road</t>
+          <t>45-58 162nd Street</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4234,57 +4226,61 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>11355</v>
+        <v>11358</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://www.rlbgcc.com</t>
+          <t>http://www.bjlauraandson.com</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Roof repair, demolition, all kind of chain link fence, on call roof repair, paint, cement and masonry repair, any custom design, ironwork, on call building maintains work, on call any chin link fence 24/7. We will do any job under $100,000</t>
+          <t>We are mechancial contractors specilaizing in repairs, service, maintenance and installation of overhead doors, grilles and gates, sliding and swinging gates, barrier arms and their associated equipment, access systems, and overhead door safety materials, education amd training. This service includes operating devices and safety controls.</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B. J. Laura &amp; Son, Inc.</t>
+          <t>Nest Wireless Global, LLC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Doris Krsnak</t>
+          <t>Helen Chu</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7189619841</v>
+        <v>9083346060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>dck@bjlaura.com</t>
+          <t>Helen@nestwirelessglobal.com</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>07/31/2020;07/31/2020</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>45-58 162nd Street</t>
+          <t>41-15 Kissena Blvd</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -4299,16 +4295,16 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>11358</v>
+        <v>11355</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://www.bjlauraandson.com</t>
+          <t>http://www.nestwirelessglobal.com</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>We are mechancial contractors specilaizing in repairs, service, maintenance and installation of overhead doors, grilles and gates, sliding and swinging gates, barrier arms and their associated equipment, access systems, and overhead door safety materials, education amd training. This service includes operating devices and safety controls.</t>
+          <t>Nest Wireless Global is based in Flushing, New York. we provide high quality design for large areas WiFi access, wireless surveillance system as well as phone and entertainment system for small and medium size business clients.</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4320,45 +4316,47 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GPS To Success Tutoring Service, LLC</t>
+          <t>STEM Success Inc.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Teresa Christian</t>
+          <t>Anthony Mampilly</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>844-477-8646</t>
+          <t>347-545-0244</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gpstosuccess279@gmail.com</t>
+          <t>anthony@stemsuccess.com</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>09/30/2024;09/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>45-15 Colden Street</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>77-40 141st Street</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Unit A</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4370,41 +4368,41 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>11355</v>
+        <v>11367</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>https://www.gpstosucess.org</t>
+          <t>http://stemsuccess.com</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>We provide academic tutoring support in math, science, social studies, writing and reading. We are home based tutoring service. We come to students home or meet with them in a public location</t>
+          <t>STEM Success provides program management and transformation services. The company also manages multi-million dollar projects/programs, directs cross-functional teams, negotiates contracts, organizes team building events and does educational coaching.</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Personal Services.  |Safety/Security &amp; Legal.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nest Wireless Global, LLC</t>
+          <t>JYMK Creation, LLC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Helen Chu</t>
+          <t>Olivia Hyun</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9083346060</v>
+        <v>6466782664</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Helen@nestwirelessglobal.com</t>
+          <t>Jymkcreation@gmail.com</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4414,7 +4412,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>07/31/2020;07/31/2020</t>
+          <t>09/29/2022;09/29/2022</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4424,10 +4422,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>41-15 Kissena Blvd</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>147-30 38th Avenue</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>#4D</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4439,68 +4441,62 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>11355</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>http://www.nestwirelessglobal.com</t>
-        </is>
-      </c>
+        <v>11354</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Nest Wireless Global is based in Flushing, New York. we provide high quality design for large areas WiFi access, wireless surveillance system as well as phone and entertainment system for small and medium size business clients.</t>
+          <t>JYMK Creation LLC designs prints and delivers visually stunning promotional and service material for small businesses. JYMK LLC serves as a graphic design and printing service for small businesses in New York &amp; New Jersey.</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>STEM Success Inc.</t>
+          <t>GPS To Success Tutoring Service, LLC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Anthony Mampilly</t>
+          <t>Teresa Christian</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>347-545-0244</t>
+          <t>844-477-8646</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>anthony@stemsuccess.com</t>
+          <t>gpstosuccess279@gmail.com</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>44985</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>09/30/2024;09/30/2024</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>77-40 141st Street</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Unit A</t>
-        </is>
-      </c>
+          <t>45-15 Colden Street</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4512,54 +4508,46 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>11367</v>
+        <v>11355</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://stemsuccess.com</t>
+          <t>https://www.gpstosucess.org</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>STEM Success provides program management and transformation services. The company also manages multi-million dollar projects/programs, directs cross-functional teams, negotiates contracts, organizes team building events and does educational coaching.</t>
+          <t>We provide academic tutoring support in math, science, social studies, writing and reading. We are home based tutoring service. We come to students home or meet with them in a public location</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing.  |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kissena Cherry Daycare Inc</t>
+          <t>Hi &amp; Low Computers, Inc.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Flora Chung</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>718-886-2889</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>info@kissenadaycare.com</t>
-        </is>
-      </c>
+          <t>Ku-Long Lin</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7188868088</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>03/31/2024;03/31/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45015</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4568,14 +4556,10 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>140-26 Cherry Avenue</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Unit 1B</t>
-        </is>
-      </c>
+          <t>135-23 Northern Blvd.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4587,50 +4571,52 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>11355</v>
+        <v>11354</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://www.kissenadaycare.com</t>
+          <t>http://www.hilow.com</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Daycare Center for children from 2 to 5 years old</t>
+          <t>Computer and appliance wholesale and retailm, surveillance systems, installation and repair.</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kiska Solutions, Inc.</t>
+          <t>P.C. Liu, CPA, P.C.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Weihua Chen</t>
+          <t>Pearl Liu</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7187671911</v>
+        <v>7189616686</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>richard.chen@kiskasolutions.com</t>
+          <t>pearlliu8@gmail.com</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>44741</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>06/30/2020;06/30/2020</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4639,14 +4625,10 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>28-24 120th Street</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Suite 200</t>
-        </is>
-      </c>
+          <t>136-40 39th Avenue - Suite 202</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4662,48 +4644,46 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://www.kiskasolutions.com</t>
+          <t>http://www.pcliucpa.com</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Design, installation, and management of security camera system, intercom system, card access control system, phone system, and computer networks.</t>
+          <t>P.C. Liu, CPA, P.C. is an certified public accounting firm that provides full accounting and auditing services, we also provide bookkeeping, payroll process and sales report services.</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JYMK Creation, LLC</t>
+          <t>Clean Air Car Service &amp; Parking Corp.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Olivia Hyun</t>
+          <t>Howard Cohen</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6466782664</v>
+        <v>9179356572</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jymkcreation@gmail.com</t>
+          <t>kwang@operr.com</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>09/29/2022;09/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45229</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4712,13 +4692,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>147-30 38th Avenue</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>#4D</t>
-        </is>
+          <t>130-30 31st Avenue</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>801</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4736,37 +4714,45 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>JYMK Creation LLC designs prints and delivers visually stunning promotional and service material for small businesses. JYMK LLC serves as a graphic design and printing service for small businesses in New York &amp; New Jersey.</t>
+          <t>Non-emergency medical transportation; livery;parking garage; mobile applications; technology solutions; related services; computer services; software</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hi &amp; Low Computers, Inc.</t>
+          <t>Kissena Cherry Daycare Inc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ku-Long Lin</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>7188868088</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>Flora Chung</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>718-886-2889</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>info@kissenadaycare.com</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="n">
-        <v>45015</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>03/31/2024;03/31/2024</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4775,10 +4761,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>135-23 Northern Blvd.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>140-26 Cherry Avenue</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Unit 1B</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4790,41 +4780,41 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>11354</v>
+        <v>11355</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://www.hilow.com</t>
+          <t>http://www.kissenadaycare.com</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Computer and appliance wholesale and retailm, surveillance systems, installation and repair.</t>
+          <t>Daycare Center for children from 2 to 5 years old</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SHJ Construction, Inc.</t>
+          <t>Architectural Craft Stone Source, Inc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jingai Zheng</t>
+          <t>Steven Li</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7188864118</v>
+        <v>7188208885</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>shjconstruction@hotmail.com</t>
+          <t>jerry@acs-us.net</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4833,7 +4823,7 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44711</v>
+        <v>45322</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4842,10 +4832,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>45-32  Union St.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>150-28 Union Turnpike</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Suite105</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4857,37 +4851,41 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>11355</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>11367</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://www.acs-us.net</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>New Single-Family Housing construction, Residential Remodelers, Commercial and Institutional building construction.  Framing Constructors, Masonry, Roofing, Siding, Drywall, Painting, Flooring, Tile, Finish Carpentry.</t>
+          <t>Granite supplier.</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Swan Tile Corp.</t>
+          <t>Monpat Construction Inc.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Steve Lee</t>
+          <t>Mihir Patel</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7183218488</v>
+        <v>7183595149</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Steve.lee@swantilecabinets.com</t>
+          <t>mihir@monpat.com</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4896,7 +4894,7 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45015</v>
+        <v>44560</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4905,7 +4903,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>132-08 32nd Avenue</t>
+          <t>157-21 Horace Harding Expwy</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4920,46 +4918,54 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>11354</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>11367</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://www.monpat.com</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Fabrication and installation of kitchen &amp; bathroom counter tops, cabinets, and tiles.</t>
+          <t>Roofing &amp; Waterproofing, Masonry, Concrete, Siteworks.</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wei Wei &amp; Co., LLP</t>
+          <t>Betsy Mak Appraisal Group, LLC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Liren Wei</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>7184456308</v>
+          <t>Betsy Mak</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>718-886-2800</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>liren@weiweico.com</t>
+          <t>betsymak@hotmail.com</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>44956</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>11/30/2024;11/30/2024</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4968,10 +4974,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>133-10 39th Avenue</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>135-15 40th Road</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>#601</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -4985,39 +4995,33 @@
       <c r="L67" t="n">
         <v>11354</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>http://www.weiweico.com</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>We are a full service accounting (CPA) firm. Our services include auditing, accounting tax return preparation, budgeting, and consulting.</t>
+          <t>Betsy Mak Appraisal Group, LLC provides real estate appraisal services in Queens, Brooklyn and Manhattan.</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jay Zhu Engineering Design PC</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Jie Zhu</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>3478228295</v>
+          <t>First Beacon Consulting Services, LLC</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>646-854-8448</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaychu-engineer@hotmail.com</t>
+          <t>firstbeaconconsulting@gmail.com</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5026,7 +5030,7 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>43768</v>
+        <v>44561</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5035,14 +5039,10 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>163-10 Northern Boulevard</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Room 305</t>
-        </is>
-      </c>
+          <t>33-03 166th Street</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5059,34 +5059,34 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Architectural design, engineering design, drafting, building permits, expenditing service, building develop consulting, construction consulting.</t>
+          <t>First Beacon Consulting Services, LLC was registered on 06/14/2016 with the N.Y.S. Department of State, as a Limited Liability Company with its primary business objective to provide Environmental, Health and Safety (EH&amp;S) consultation service and advise to clients in the construction industry.</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CORE ELECTRIC MEP INDUSTRIES LLC</t>
+          <t>American Environmental &amp; Construction Corp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Steve Eo</t>
+          <t>Victor Prado</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>347-542-3222</t>
+          <t>347-692-7754</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>coreelectricindus@gmail.com</t>
+          <t>amerceninfo@gmail.com</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5095,19 +5095,23 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45291</v>
+        <v>44865</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>129-09 26 Ave - Suite 203</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>141-18 78th Rd.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Apt 3E</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5119,37 +5123,37 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>11354</v>
+        <v>11367</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>General Wiring (residential and commercial) Lighting and Lighting system, electrical service, power for communication.</t>
+          <t>Asbestos Abatement and Air Monitoring</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |IT. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Precise Design Inc.</t>
+          <t>A &amp; T Corp</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aldemar Barona</t>
+          <t>Robert Lin</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7186900366</v>
+        <v>9175770025</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>sales@precisedesigninc.com</t>
+          <t>atcorpny@gmail.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5158,23 +5162,19 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44469</v>
+        <v>45473</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>189-18 44th Avneue</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1st Floor</t>
-        </is>
-      </c>
+          <t>164-09 Northern Blvd 2FL</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5188,39 +5188,35 @@
       <c r="L70" t="n">
         <v>11358</v>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>http://www.precisedesigninc.com</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Precise Design Inc. is a full service home improvement company. We specialize in residential and commercial interior remodeling and renovations.</t>
+          <t>Architecture design, structure design, loan rating, temperate structure design, construction inspection, design inspection, construction support, construction management.</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Netcon Inc.</t>
+          <t>Flushing Iron Weld, Inc.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>William Meehan</t>
+          <t>Paula Munoz</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9178171090</v>
+        <v>7183592208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>will@timelinesecurity.com</t>
+          <t>info@flushingiron.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5229,16 +5225,16 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45168</v>
+        <v>44591</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>160-60 27th Avenue</t>
+          <t>131-25 Maple Ave.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5253,59 +5249,61 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>11358</v>
+        <v>11355</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://www.timelinesecurity.com</t>
+          <t>http://flushingiron.com</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Netcon Inc. DBA Timeline Security provides services in installation, servicing and maintaining surveillance, security and fire alarm systems.  As well as network infrastructure and low voltage structured cabling.</t>
+          <t>Fabrication &amp; installation of miscellaneous steel items, ornamental steel, small structural including, but not limited to, beams, angles, channels, canopies, stairs, handrails, hoist beams, wall rails, mezzanines, posts &amp; gates.</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LARRY'S CREATIONS INC</t>
+          <t>A Floating Affair Ballon Decorating Services, Inc.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Larry Uribe</t>
+          <t>Kim Mitchell</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7182335090</v>
+        <v>7183219144</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>design@graphicalprint.com</t>
+          <t>kim@afloatingaffair.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>45106</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>07/30/2022;07/30/2022</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>32-01 college point blvd</t>
+          <t>166-20 Pidgeon Meadow Road</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5320,37 +5318,41 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>11354</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>11358</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://www.afloatingaffair.com</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Graphical Print is a company that offers printing solutions. We print from outstanding rolled Labels to a huge digital printing media, Banners, Posters &amp; signs. Our new online business has grown over the past few years. Costumers find it easy and reliable way to upload their files. They can choose size, quantity, media, finishing, Shipping or store pick up. Our printing quality is top of the line, we have printers with best resolution that use the best vivid colors inks in the market. Every day we look forward to maintaining quality-customer service by making our clients business exclusive and unique. We offer graphic design and quotes to help with every print project. Print and design for our costumer is very important we treat every project like our own. Every label is unique, every banner is different, here at graphical print we welcome all of your business projects.</t>
+          <t>Balloon delivery and event decorating services. Decorating services include: table arrangement, arches, columns, dance floors, stage/entrance decor, themes and balloon sculptures. Entertainment for children: facepainting and balloon twisting.</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Monpat Construction Inc.</t>
+          <t>Netcon Inc.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mihir Patel</t>
+          <t>William Meehan</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7183595149</v>
+        <v>9178171090</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>mihir@monpat.com</t>
+          <t>will@timelinesecurity.com</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5359,7 +5361,7 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44560</v>
+        <v>45168</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5368,7 +5370,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>157-21 Horace Harding Expwy</t>
+          <t>160-60 27th Avenue</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5383,43 +5385,41 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>11367</v>
+        <v>11358</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://www.monpat.com</t>
+          <t>http://www.timelinesecurity.com</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Roofing &amp; Waterproofing, Masonry, Concrete, Siteworks.</t>
+          <t>Netcon Inc. DBA Timeline Security provides services in installation, servicing and maintaining surveillance, security and fire alarm systems.  As well as network infrastructure and low voltage structured cabling.</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hisun Optoelectronics Co., LTD</t>
+          <t>LARRY'S CREATIONS INC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Eugene Yu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>718-886-6966</t>
-        </is>
+          <t>Larry Uribe</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>7182335090</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>eugeneyu@hisunoptoled.com</t>
+          <t>design@graphicalprint.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5428,16 +5428,16 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45596</v>
+        <v>45106</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>41-09 College Point Blvd</t>
+          <t>32-01 college point blvd</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5452,50 +5452,50 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>11355</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://www.hisunoptoled.com</t>
-        </is>
-      </c>
+        <v>11354</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>We are a business that focuses on distribution and sales of LED lighting products. This includes lights for commercial, industrial and residential use. Our products are energy efficient, eco-friendly, and meet industry certifications.</t>
+          <t>Graphical Print is a company that offers printing solutions. We print from outstanding rolled Labels to a huge digital printing media, Banners, Posters &amp; signs. Our new online business has grown over the past few years. Costumers find it easy and reliable way to upload their files. They can choose size, quantity, media, finishing, Shipping or store pick up. Our printing quality is top of the line, we have printers with best resolution that use the best vivid colors inks in the market. Every day we look forward to maintaining quality-customer service by making our clients business exclusive and unique. We offer graphic design and quotes to help with every print project. Print and design for our costumer is very important we treat every project like our own. Every label is unique, every banner is different, here at graphical print we welcome all of your business projects.</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Accord Power Inc</t>
+          <t>BCG Glass Industry Inc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wenlong Xia</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>7183218820</v>
+          <t>Nancy Ye</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>929-300-8702</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>info@accordpowerinc.com</t>
+          <t>info@bcgglassindustry.com</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>44650</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>03/31/2024;03/31/2024</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5504,14 +5504,10 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>130-30 31st Ave</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Suite 707</t>
-        </is>
-      </c>
+          <t>41-75 Bowne Street</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5523,41 +5519,37 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>11354</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>http://www.accordpowerinc.com</t>
-        </is>
-      </c>
+        <v>11355</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Solar developer &amp; solar installer for residential, commercial and industrial, also include energy storage, battery.</t>
+          <t>BCG Glass specializes in the R&amp;D design, manufacture and installation of the glass curtain wall, window walls and shower enclosures with certificates for first rate design and class A of construction. BCG Glass provides exterior and interior glass products and installation for high-rise buildings, airports, public buildings and other landmarks throughout Southeast Asia, Australia, The Middle East, Europe and North America.</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tri Borough Scaffolding and Hoisting, Inc.</t>
+          <t>SHJ Construction, Inc.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>John Po Sheng Hsu</t>
+          <t>Jingai Zheng</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7188861300</v>
+        <v>7188864118</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>info@triboroscaffolding.com</t>
+          <t>shjconstruction@hotmail.com</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5566,7 +5558,7 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45198</v>
+        <v>44711</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5575,7 +5567,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3506 Farrington Street 1st Floor</t>
+          <t>45-32  Union St.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5590,60 +5582,58 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>11354</v>
+        <v>11355</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>we build scaffolds and sidewalk bridge.</t>
+          <t>New Single-Family Housing construction, Residential Remodelers, Commercial and Institutional building construction.  Framing Constructors, Masonry, Roofing, Siding, Drywall, Painting, Flooring, Tile, Finish Carpentry.</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WBE Unlimited Corp.</t>
+          <t>Swan Tile Corp.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Filomena Gonzalez</t>
+          <t>Steve Lee</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7183532905</v>
+        <v>7183218488</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wbeunlimited@gmail.com</t>
+          <t>Steve.lee@swantilecabinets.com</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45015</v>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>36-22A Francis Lewis Blvd.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Suite 203</t>
-        </is>
-      </c>
+          <t>132-08 32nd Avenue</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5655,37 +5645,37 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>11358</v>
+        <v>11354</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>WBE Unlimited Corp. has a full staff of estimator that has done work for NYC Parks Dept. as site work interior and historic persauation park.</t>
+          <t>Fabrication and installation of kitchen &amp; bathroom counter tops, cabinets, and tiles.</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Plus K Construction, Inc.</t>
+          <t>Wei Wei &amp; Co., LLP</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Young Kim</t>
+          <t>Liren Wei</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7183581650</v>
+        <v>7184456308</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>youngkim@ardecogroup.com</t>
+          <t>liren@weiweico.com</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5694,7 +5684,7 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>43981</v>
+        <v>44956</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5703,14 +5693,10 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>162-19 Depot Road</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Suite # 202</t>
-        </is>
-      </c>
+          <t>133-10 39th Avenue</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5722,41 +5708,41 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>11358</v>
+        <v>11354</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://www.ardecogroup.com</t>
+          <t>http://www.weiweico.com</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>We provide a streamlined service from design concept, architectural consultation, budget management, to construction.  We specialize in custom design work utilizing glass, metal and concrete.</t>
+          <t>We are a full service accounting (CPA) firm. Our services include auditing, accounting tax return preparation, budgeting, and consulting.</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Transportation. </t>
+          <t xml:space="preserve"> |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Strafford Construction Group, LLC</t>
+          <t>Jay Zhu Engineering Design PC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Syed Farooq</t>
+          <t>Jie Zhu</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3475144398</v>
+        <v>3478228295</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Farooq@straffordgroup.com</t>
+          <t>jaychu-engineer@hotmail.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5765,7 +5751,7 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>43921</v>
+        <v>43768</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5774,10 +5760,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>34-10 149th Street</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>163-10 Northern Boulevard</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Room 305</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>Flushing</t>
@@ -5789,15 +5779,878 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
+          <t>Architectural design, engineering design, drafting, building permits, expenditing service, building develop consulting, construction consulting.</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Heath Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>US One Construction, Inc</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Esther Lee</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>9174183421</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>usoneconstruction@gmail.com</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10/30/2023;10/30/2023</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>43-17 172nd Street</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>11358</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Carpentry  Painting  drywall  excavation</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Crystal Window &amp; Door Systems, Ltd.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Amanda Li</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>7189617300</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>howardt@crystalwindows.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>31-10 Whitestone Expressway</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://www.crystalwindows.com</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Manufacturer of energy-efficient, NFRC certified, vinyl window &amp; doors; AAMA certified aluminum windows &amp; doors for light commercial &amp; architectural projects.</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Select Settlement Service Inc</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ilana Aronov</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7182630906</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>selectsett@gmail.com</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>75-18 Vleigh Place</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>11367</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>We offer a full range of closing and title services for Lenders and Brokers throughout New York State. We offer personalized service and are able to deliver superior service   We work with the Lending Underwriters in the industry.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CORE ELECTRIC MEP INDUSTRIES LLC</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Steve Eo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>347-542-3222</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>coreelectricindus@gmail.com</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>129-09 26 Ave - Suite 203</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>General Wiring (residential and commercial) Lighting and Lighting system, electrical service, power for communication.</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Precise Design Inc.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Aldemar Barona</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>7186900366</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>sales@precisedesigninc.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>189-18 44th Avneue</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1st Floor</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>11358</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://www.precisedesigninc.com</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Precise Design Inc. is a full service home improvement company. We specialize in residential and commercial interior remodeling and renovations.</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>WSPNYC INC.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>William Tan</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>9178378632</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>wspnycinc@gmail.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2616 Union Street</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Suite 2A</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>WSP was established in 2015. A local base photography company for business and publicity, products, landscape, events sports photography, family portraits, pet photography and wedding services.</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Greenbuild Construction Group, Inc.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>April Fenchak</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2017880545</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>aguastella@greenbuildcg.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>35-10 154th Street</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://www.greenbuildcg.com</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>As a general Contractor, we deliver a construction project as a 'lump sum' or 'cost Plus' contract with or without a Guaranteed Maximum Price (GMP). We provide all required site supervision, labor, mamagement, construction, materials, safety and quality control throughout the project.</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Accord Power Inc</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wenlong Xia</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>7183218820</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>info@accordpowerinc.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>130-30 31st Ave</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Suite 707</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://www.accordpowerinc.com</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Solar developer &amp; solar installer for residential, commercial and industrial, also include energy storage, battery.</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services.  |Safety/Security &amp; Legal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tri Borough Scaffolding and Hoisting, Inc.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>John Po Sheng Hsu</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>7188861300</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>info@triboroscaffolding.com</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>3506 Farrington Street 1st Floor</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>we build scaffolds and sidewalk bridge.</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hisun Optoelectronics Co., LTD</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Eugene Yu</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>718-886-6966</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>eugeneyu@hisunoptoled.com</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>41-09 College Point Blvd</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>11355</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://www.hisunoptoled.com</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>We are a business that focuses on distribution and sales of LED lighting products. This includes lights for commercial, industrial and residential use. Our products are energy efficient, eco-friendly, and meet industry certifications.</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal.  |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WBE Unlimited Corp.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Filomena Gonzalez</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>7183532905</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wbeunlimited@gmail.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>36-22A Francis Lewis Blvd.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Suite 203</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>11358</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>WBE Unlimited Corp. has a full staff of estimator that has done work for NYC Parks Dept. as site work interior and historic persauation park.</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal.  |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Plus K Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Young Kim</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>7183581650</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>youngkim@ardecogroup.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>43981</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>162-19 Depot Road</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Suite # 202</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>11358</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://www.ardecogroup.com</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>We provide a streamlined service from design concept, architectural consultation, budget management, to construction.  We specialize in custom design work utilizing glass, metal and concrete.</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Transportation. </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Strafford Construction Group, LLC</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Syed Farooq</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3475144398</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Farooq@straffordgroup.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>34-10 149th Street</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Flushing</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>11354</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>Management of Mechanical, Electrical, Plumbing Work  CPM Project Scheduling Work  Systems Commissioning</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t xml:space="preserve"> |Transportation. </t>
         </is>
